--- a/public/Plantilla12.xlsx
+++ b/public/Plantilla12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,6 @@
     <t>Mujeres</t>
   </si>
   <si>
-    <t>Mecatronica</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>SEP-DIC</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
   </si>
 </sst>
 </file>
@@ -855,20 +855,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -885,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2015</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -905,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>13</v>
